--- a/pnm stuff/pnm_data.xlsx
+++ b/pnm stuff/pnm_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mannb\source\repos\recruitment_project\pnm stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{750BA316-B086-4224-B1E5-9E6A7A205D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88847347-6B60-41FE-AD4A-7E5CF76EF816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="16629" xr2:uid="{E63F447A-422D-4D95-A015-BE5D31BB5E5D}"/>
   </bookViews>
@@ -6017,10 +6017,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6340,8 +6336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{773C4BD9-8375-4B63-912C-91EA5F80F2E2}">
   <dimension ref="A1:H519"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="F133" sqref="F133"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="K223" sqref="K223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -10560,52 +10556,52 @@
         <v>7</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A167">
+    <row r="167" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A167" s="2">
         <v>9784150</v>
       </c>
-      <c r="B167">
+      <c r="B167" s="2">
         <v>200</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C167" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="D167" t="s">
+      <c r="D167" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E167" t="s">
+      <c r="E167" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="F167" t="s">
+      <c r="F167" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="G167" s="1">
+      <c r="G167" s="3">
         <v>45860.836111111108</v>
       </c>
-      <c r="H167">
+      <c r="H167" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A168">
+    <row r="168" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A168" s="2">
         <v>10077915</v>
       </c>
-      <c r="B168">
+      <c r="B168" s="2">
         <v>422</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C168" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="D168" t="s">
+      <c r="D168" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="F168" t="s">
+      <c r="F168" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="G168" s="1">
+      <c r="G168" s="3">
         <v>45922.61041666667</v>
       </c>
-      <c r="H168">
+      <c r="H168" s="2">
         <v>7</v>
       </c>
     </row>
@@ -11062,26 +11058,26 @@
         <v>7</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A187">
+    <row r="187" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A187" s="2">
         <v>10082815</v>
       </c>
-      <c r="B187">
+      <c r="B187" s="2">
         <v>525</v>
       </c>
-      <c r="C187" t="s">
+      <c r="C187" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="D187" t="s">
+      <c r="D187" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="F187" t="s">
+      <c r="F187" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="G187" s="1">
+      <c r="G187" s="3">
         <v>45926.625</v>
       </c>
-      <c r="H187">
+      <c r="H187" s="2">
         <v>7</v>
       </c>
     </row>
@@ -11264,29 +11260,29 @@
         <v>8</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A195">
+    <row r="195" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A195" s="2">
         <v>9794427</v>
       </c>
-      <c r="B195">
+      <c r="B195" s="2">
         <v>218</v>
       </c>
-      <c r="C195" t="s">
+      <c r="C195" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="D195" t="s">
+      <c r="D195" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="E195" t="s">
+      <c r="E195" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="F195" t="s">
+      <c r="F195" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="G195" s="1">
+      <c r="G195" s="3">
         <v>45867.679861111108</v>
       </c>
-      <c r="H195">
+      <c r="H195" s="2">
         <v>8</v>
       </c>
     </row>
@@ -11498,29 +11494,29 @@
         <v>8</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A204">
+    <row r="204" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A204" s="2">
         <v>9803398</v>
       </c>
-      <c r="B204">
+      <c r="B204" s="2">
         <v>227</v>
       </c>
-      <c r="C204" t="s">
+      <c r="C204" s="2" t="s">
         <v>735</v>
       </c>
-      <c r="D204" t="s">
+      <c r="D204" s="2" t="s">
         <v>736</v>
       </c>
-      <c r="E204" t="s">
+      <c r="E204" s="2" t="s">
         <v>737</v>
       </c>
-      <c r="F204" t="s">
+      <c r="F204" s="2" t="s">
         <v>738</v>
       </c>
-      <c r="G204" s="1">
+      <c r="G204" s="3">
         <v>45871.799305555556</v>
       </c>
-      <c r="H204">
+      <c r="H204" s="2">
         <v>8</v>
       </c>
     </row>
@@ -19633,15 +19629,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006C916AB3A7194D42B62F90D943810B2F" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="107cb39f04aeaecfd00219ec5f1ec857">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="07f6d03f-8c7d-4502-bc28-df216f6d469b" xmlns:ns4="6f115d48-ec60-4c4d-b6d6-15332c5d3bad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0524b8ae2f1c7497b408ee9fb7dd0a70" ns3:_="" ns4:_="">
     <xsd:import namespace="07f6d03f-8c7d-4502-bc28-df216f6d469b"/>
@@ -19854,6 +19841,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -19863,14 +19859,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FC61BCA-29FE-4A3A-8E60-5C0F5AFE19BC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1042096-63EF-4113-9525-3637451717EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19885,6 +19873,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FC61BCA-29FE-4A3A-8E60-5C0F5AFE19BC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
